--- a/ESM_Italy_7/case_studies/Italy24/scenarios/b.1_NUC_7/inputs/TechnologyData.xlsx
+++ b/ESM_Italy_7/case_studies/Italy24/scenarios/b.1_NUC_7/inputs/TechnologyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcarm\Documents\GitHub\ESM-Italy\case_studies\Italy24\scenarios\b.1_NUC_7\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\ESM-Italy\ESM_Italy_7\case_studies\Italy24\scenarios\b.1_NUC_7\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA638A61-4B87-4E98-A334-2E1DB65F77D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002DDF7B-B315-40A2-9BE7-598DC2AA65D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5364" yWindow="0" windowWidth="17676" windowHeight="12084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="r.A.T1" sheetId="1" r:id="rId1"/>
@@ -3036,52 +3036,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="N20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="Z20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="topRight" activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
       <selection pane="bottomRight" activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="28" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>5</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -8625,12 +8625,12 @@
       <selection activeCell="X18" sqref="X18:Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -10940,9 +10940,9 @@
       <selection activeCell="X18" sqref="X18:Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -13252,9 +13252,9 @@
       <selection activeCell="X18" sqref="X18:Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -15564,9 +15564,9 @@
       <selection activeCell="M22" sqref="M22:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -16347,7 +16347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -16852,7 +16852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -17054,7 +17054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -17876,9 +17876,9 @@
       <selection activeCell="M22" sqref="M22:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -18154,7 +18154,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -18558,7 +18558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -18659,7 +18659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -18760,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -18962,7 +18962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -19063,7 +19063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -19467,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -19568,7 +19568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -19972,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -20188,9 +20188,9 @@
       <selection activeCell="M22" sqref="M22:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -20282,7 +20282,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -20668,7 +20668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -20870,7 +20870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -21072,7 +21072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -21274,7 +21274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -21375,7 +21375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -21476,7 +21476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -21678,7 +21678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -21880,7 +21880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -21981,7 +21981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -22082,7 +22082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -22183,7 +22183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -22284,7 +22284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -22385,7 +22385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -22500,9 +22500,9 @@
       <selection activeCell="M22" sqref="M22:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -22594,7 +22594,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -22686,7 +22686,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -22879,7 +22879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -23081,7 +23081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -23182,7 +23182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -23283,7 +23283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -23485,7 +23485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -23586,7 +23586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -23687,7 +23687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -23788,7 +23788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -23889,7 +23889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -23990,7 +23990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -24091,7 +24091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -24293,7 +24293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -24394,7 +24394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -24495,7 +24495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -24596,7 +24596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -24812,9 +24812,9 @@
       <selection activeCell="M22" sqref="M22:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -24906,7 +24906,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -24998,7 +24998,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -25090,7 +25090,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -25191,7 +25191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -26100,7 +26100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -26201,7 +26201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -26302,7 +26302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -26403,7 +26403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -26504,7 +26504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -26605,7 +26605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -26706,7 +26706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -26807,7 +26807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -26908,7 +26908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -27009,7 +27009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -27124,9 +27124,9 @@
       <selection activeCell="M22" sqref="M22:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -27218,7 +27218,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -27310,7 +27310,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -27402,7 +27402,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -27604,7 +27604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -27705,7 +27705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -27806,7 +27806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -28008,7 +28008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -28109,7 +28109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -28210,7 +28210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -28412,7 +28412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -28513,7 +28513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -28715,7 +28715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -28917,7 +28917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -29018,7 +29018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -29119,7 +29119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -29220,7 +29220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -29321,7 +29321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -29436,9 +29436,9 @@
       <selection activeCell="M22" sqref="M22:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -29530,7 +29530,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -29622,7 +29622,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -29714,7 +29714,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -29916,7 +29916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -30017,7 +30017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -30118,7 +30118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -30219,7 +30219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -30421,7 +30421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -30522,7 +30522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -30623,7 +30623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -30724,7 +30724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -30825,7 +30825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -31027,7 +31027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -31128,7 +31128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -31229,7 +31229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -31330,7 +31330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -31431,7 +31431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -31532,7 +31532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -31633,7 +31633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -31748,41 +31748,41 @@
       <selection activeCell="Y18" sqref="Y18:Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="28" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -31874,7 +31874,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -31966,7 +31966,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -32058,7 +32058,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -32159,7 +32159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -32260,7 +32260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -32361,7 +32361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -32462,7 +32462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -32563,7 +32563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -32664,7 +32664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -32765,7 +32765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -32866,7 +32866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -32967,7 +32967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -33068,7 +33068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -33169,7 +33169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -33270,7 +33270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -33371,7 +33371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -33472,7 +33472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -33573,7 +33573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -33674,7 +33674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -33775,7 +33775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -33876,7 +33876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -33977,7 +33977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -34092,9 +34092,9 @@
       <selection activeCell="M22" sqref="M22:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -34186,7 +34186,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -34278,7 +34278,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -34370,7 +34370,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -34572,7 +34572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -34673,7 +34673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -34976,7 +34976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -35077,7 +35077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -35178,7 +35178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -35279,7 +35279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -35380,7 +35380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -35481,7 +35481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -35582,7 +35582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -35683,7 +35683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -35784,7 +35784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -35885,7 +35885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -36087,7 +36087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -36188,7 +36188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -36289,7 +36289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -36404,9 +36404,9 @@
       <selection activeCell="M22" sqref="M22:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -36498,7 +36498,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -36590,7 +36590,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -36682,7 +36682,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -36783,7 +36783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -36884,7 +36884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -36985,7 +36985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -37086,7 +37086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -37187,7 +37187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -37288,7 +37288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -37389,7 +37389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -37490,7 +37490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -37591,7 +37591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -37692,7 +37692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -37793,7 +37793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -37894,7 +37894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -37995,7 +37995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -38197,7 +38197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -38298,7 +38298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -38399,7 +38399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -38500,7 +38500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -38601,7 +38601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -38716,9 +38716,9 @@
       <selection activeCell="K16" sqref="K16:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -38810,7 +38810,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -38902,7 +38902,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -38994,7 +38994,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -39095,7 +39095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -39196,7 +39196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -39297,7 +39297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -39398,7 +39398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -39499,7 +39499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -39600,7 +39600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -39701,7 +39701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -39802,7 +39802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -39903,7 +39903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -40004,7 +40004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -40105,7 +40105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -40206,7 +40206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -40307,7 +40307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -40408,7 +40408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -40509,7 +40509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -40610,7 +40610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -40711,7 +40711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -40812,7 +40812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -40913,7 +40913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -41028,9 +41028,9 @@
       <selection activeCell="K16" sqref="K16:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -41122,7 +41122,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -41214,7 +41214,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -41306,7 +41306,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -41407,7 +41407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -41508,7 +41508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -41609,7 +41609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -41710,7 +41710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -41811,7 +41811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -41912,7 +41912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -42013,7 +42013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -42114,7 +42114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -42215,7 +42215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -42316,7 +42316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -42417,7 +42417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -42518,7 +42518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -42619,7 +42619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -42720,7 +42720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -42821,7 +42821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -42922,7 +42922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -43023,7 +43023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -43124,7 +43124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -43225,7 +43225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -43340,9 +43340,9 @@
       <selection activeCell="K16" sqref="K16:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -43434,7 +43434,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -43526,7 +43526,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -43618,7 +43618,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -43719,7 +43719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -43820,7 +43820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -43921,7 +43921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -44022,7 +44022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -44123,7 +44123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -44224,7 +44224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -44325,7 +44325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -44426,7 +44426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -44527,7 +44527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -44628,7 +44628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -44729,7 +44729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -44830,7 +44830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -44931,7 +44931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -45032,7 +45032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -45133,7 +45133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -45234,7 +45234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -45335,7 +45335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -45436,7 +45436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -45537,7 +45537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -45652,9 +45652,9 @@
       <selection activeCell="K16" sqref="K16:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -45746,7 +45746,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -45838,7 +45838,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -45930,7 +45930,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -46031,7 +46031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -46132,7 +46132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -46233,7 +46233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -46334,7 +46334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -46435,7 +46435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -46536,7 +46536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -46637,7 +46637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -46738,7 +46738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -46839,7 +46839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -46940,7 +46940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -47041,7 +47041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -47142,7 +47142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -47243,7 +47243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -47344,7 +47344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -47445,7 +47445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -47546,7 +47546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -47647,7 +47647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -47748,7 +47748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -47849,7 +47849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -47964,9 +47964,9 @@
       <selection activeCell="K16" sqref="K16:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -48058,7 +48058,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -48150,7 +48150,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -48242,7 +48242,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -48343,7 +48343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -48444,7 +48444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -48545,7 +48545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -48646,7 +48646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -48747,7 +48747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -48848,7 +48848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -48949,7 +48949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -49050,7 +49050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -49151,7 +49151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -49252,7 +49252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -49353,7 +49353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -49454,7 +49454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -49555,7 +49555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -49656,7 +49656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -49757,7 +49757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -49858,7 +49858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -49959,7 +49959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -50060,7 +50060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -50161,7 +50161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -50276,9 +50276,9 @@
       <selection activeCell="K16" sqref="K16:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -50370,7 +50370,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -50462,7 +50462,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -50554,7 +50554,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -50655,7 +50655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -50756,7 +50756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -50857,7 +50857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -50958,7 +50958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -51059,7 +51059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -51160,7 +51160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -51261,7 +51261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -51362,7 +51362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -51463,7 +51463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -51564,7 +51564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -51665,7 +51665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -51766,7 +51766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -51867,7 +51867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -51968,7 +51968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -52069,7 +52069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -52170,7 +52170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -52271,7 +52271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -52372,7 +52372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -52473,7 +52473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -52588,12 +52588,12 @@
       <selection activeCell="K16" sqref="K16:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -52685,7 +52685,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -52777,7 +52777,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -52869,7 +52869,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -52970,7 +52970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -53071,7 +53071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -53172,7 +53172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -53273,7 +53273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -53374,7 +53374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -53475,7 +53475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -53576,7 +53576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -53677,7 +53677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -53778,7 +53778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -53879,7 +53879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -53980,7 +53980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -54081,7 +54081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -54182,7 +54182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -54283,7 +54283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -54384,7 +54384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -54485,7 +54485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -54586,7 +54586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -54687,7 +54687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -54788,7 +54788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -54903,12 +54903,12 @@
       <selection activeCell="M22" sqref="M22:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -55000,7 +55000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -55092,7 +55092,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -55184,7 +55184,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -55285,7 +55285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -55487,7 +55487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -55588,7 +55588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -55689,7 +55689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -55790,7 +55790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -55891,7 +55891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -55992,7 +55992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -56093,7 +56093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -56194,7 +56194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -56295,7 +56295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -56396,7 +56396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -56497,7 +56497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -56598,7 +56598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -56699,7 +56699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -56800,7 +56800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -56901,7 +56901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -57002,7 +57002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -57103,7 +57103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -57218,9 +57218,9 @@
       <selection activeCell="Y18" sqref="Y18:Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -57312,7 +57312,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -57404,7 +57404,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -57496,7 +57496,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -57597,7 +57597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -57698,7 +57698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -57799,7 +57799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -57900,7 +57900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -58001,7 +58001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -58102,7 +58102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -58203,7 +58203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -58304,7 +58304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -58405,7 +58405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -58506,7 +58506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -58607,7 +58607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -58708,7 +58708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -58809,7 +58809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -58910,7 +58910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -59011,7 +59011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -59112,7 +59112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -59213,7 +59213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -59314,7 +59314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -59415,7 +59415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -59530,9 +59530,9 @@
       <selection activeCell="M22" sqref="M22:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -59624,7 +59624,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -59716,7 +59716,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -59808,7 +59808,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -59909,7 +59909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -60010,7 +60010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -60111,7 +60111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -60212,7 +60212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -60313,7 +60313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -60414,7 +60414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -60515,7 +60515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -60616,7 +60616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -60717,7 +60717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -60818,7 +60818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -60919,7 +60919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -61020,7 +61020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -61121,7 +61121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -61222,7 +61222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -61323,7 +61323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -61424,7 +61424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -61525,7 +61525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -61626,7 +61626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -61727,7 +61727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -61842,9 +61842,9 @@
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -61936,7 +61936,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -62028,7 +62028,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -62120,7 +62120,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -62221,7 +62221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -62322,7 +62322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -62423,7 +62423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -62524,7 +62524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -62625,7 +62625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -62726,7 +62726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -62827,7 +62827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -62928,7 +62928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -63029,7 +63029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -63130,7 +63130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -63231,7 +63231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -63332,7 +63332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -63433,7 +63433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -63534,7 +63534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -63635,7 +63635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -63736,7 +63736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -63837,7 +63837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -63938,7 +63938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -64039,7 +64039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -64154,9 +64154,9 @@
       <selection activeCell="M8" sqref="M8:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -64248,7 +64248,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -64340,7 +64340,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -64432,7 +64432,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -64533,7 +64533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -64634,7 +64634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -64735,7 +64735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -64836,7 +64836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -64937,7 +64937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -65052,17 +65052,17 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -65154,7 +65154,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -65246,7 +65246,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -65338,7 +65338,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -65439,7 +65439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -65540,7 +65540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -65641,7 +65641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -65742,7 +65742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -65843,7 +65843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -65958,9 +65958,9 @@
       <selection activeCell="Y18" sqref="Y18:Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -66052,7 +66052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -66144,7 +66144,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -66236,7 +66236,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -66337,7 +66337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -66438,7 +66438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -66539,7 +66539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -66640,7 +66640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -66741,7 +66741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -66842,7 +66842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -66943,7 +66943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -67044,7 +67044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -67145,7 +67145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -67246,7 +67246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -67347,7 +67347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -67448,7 +67448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -67549,7 +67549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -67650,7 +67650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -67751,7 +67751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -67852,7 +67852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -67953,7 +67953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -68054,7 +68054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -68155,7 +68155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -68270,9 +68270,9 @@
       <selection activeCell="Y18" sqref="Y18:Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -68364,7 +68364,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -68456,7 +68456,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -68548,7 +68548,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -68649,7 +68649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -68750,7 +68750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -68851,7 +68851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -68952,7 +68952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -69053,7 +69053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -69154,7 +69154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -69255,7 +69255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -69356,7 +69356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -69457,7 +69457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -69558,7 +69558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -69659,7 +69659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -69760,7 +69760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -69861,7 +69861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -69962,7 +69962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -70063,7 +70063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -70164,7 +70164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -70265,7 +70265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -70366,7 +70366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -70467,7 +70467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -70582,9 +70582,9 @@
       <selection activeCell="Y18" sqref="Y18:Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -70676,7 +70676,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -70768,7 +70768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -70860,7 +70860,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -70961,7 +70961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -71062,7 +71062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -71163,7 +71163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -71264,7 +71264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -71365,7 +71365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -71466,7 +71466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -71567,7 +71567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -71668,7 +71668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -71769,7 +71769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -71870,7 +71870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -71971,7 +71971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -72072,7 +72072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -72274,7 +72274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -72375,7 +72375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -72476,7 +72476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -72577,7 +72577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -72678,7 +72678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -72779,7 +72779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -72894,9 +72894,9 @@
       <selection activeCell="Y18" sqref="Y18:Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -72988,7 +72988,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -73080,7 +73080,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -73172,7 +73172,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -73273,7 +73273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -73374,7 +73374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -73475,7 +73475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -73576,7 +73576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -73677,7 +73677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -73778,7 +73778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -73879,7 +73879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -73980,7 +73980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -74081,7 +74081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -74182,7 +74182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -74283,7 +74283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -74384,7 +74384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -74485,7 +74485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -74586,7 +74586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -74687,7 +74687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -74788,7 +74788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -74889,7 +74889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -74990,7 +74990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -75091,7 +75091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -75206,9 +75206,9 @@
       <selection activeCell="Y18" sqref="Y18:Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -75300,7 +75300,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -75392,7 +75392,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -75484,7 +75484,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -75585,7 +75585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -75686,7 +75686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -75787,7 +75787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -75888,7 +75888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -75989,7 +75989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -76090,7 +76090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -76191,7 +76191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -76292,7 +76292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -76393,7 +76393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -76494,7 +76494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -76595,7 +76595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -76696,7 +76696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -76797,7 +76797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -76898,7 +76898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -76999,7 +76999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -77100,7 +77100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -77201,7 +77201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -77302,7 +77302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -77403,7 +77403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -77518,12 +77518,12 @@
       <selection activeCell="Y18" sqref="Y18:Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="27" max="27" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
@@ -77615,7 +77615,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
@@ -77707,7 +77707,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>121</v>
       </c>
@@ -77799,7 +77799,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -77900,7 +77900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -78001,7 +78001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -78102,7 +78102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -78203,7 +78203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -78304,7 +78304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -78405,7 +78405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -78506,7 +78506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -78607,7 +78607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -78708,7 +78708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -78809,7 +78809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -78910,7 +78910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -79011,7 +79011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -79112,7 +79112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -79213,7 +79213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -79314,7 +79314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -79415,7 +79415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -79516,7 +79516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -79617,7 +79617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -79718,7 +79718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>

--- a/ESM_Italy_7/case_studies/Italy24/scenarios/b.1_NUC_7/inputs/TechnologyData.xlsx
+++ b/ESM_Italy_7/case_studies/Italy24/scenarios/b.1_NUC_7/inputs/TechnologyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\ESM-Italy\ESM_Italy_7\case_studies\Italy24\scenarios\b.1_NUC_7\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002DDF7B-B315-40A2-9BE7-598DC2AA65D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7BF89F-43BF-4EC2-B1F9-C7316A9C971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="r.A.T1" sheetId="1" r:id="rId1"/>
@@ -3037,11 +3037,11 @@
   <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="Z20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="O20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="topRight" activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
-      <selection pane="bottomRight" activeCell="Q44" sqref="Q44"/>
+      <selection pane="bottomRight" activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
